--- a/lod_analysis/results/summary/summary.xlsx
+++ b/lod_analysis/results/summary/summary.xlsx
@@ -467,31 +467,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
-        <v>0.7638888888888892</v>
+        <v>0.771043771043771</v>
       </c>
       <c r="D2">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E2">
-        <v>0.6919191919191915</v>
+        <v>0.6941457586618872</v>
       </c>
       <c r="F2">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="G2">
-        <v>0.9251700680272104</v>
+        <v>0.9294871794871791</v>
       </c>
       <c r="H2">
-        <v>1.537956857681274</v>
+        <v>1.275997257232666</v>
       </c>
       <c r="I2">
-        <v>7.336879053115845</v>
+        <v>7.87831024646759</v>
       </c>
       <c r="J2">
-        <v>0.05343773126602172</v>
+        <v>0.05576641798019409</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -499,31 +499,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.7697594501718213</v>
+        <v>0.7399999999999994</v>
       </c>
       <c r="D3">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="E3">
-        <v>0.6242816091954023</v>
+        <v>0.6422872340425532</v>
       </c>
       <c r="F3">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="G3">
-        <v>0.9251207729468597</v>
+        <v>0.9224318658280918</v>
       </c>
       <c r="H3">
-        <v>1.411308596134186</v>
+        <v>1.290740733146667</v>
       </c>
       <c r="I3">
-        <v>18.66687815904617</v>
+        <v>21.64593915224075</v>
       </c>
       <c r="J3">
-        <v>0.05295505285263061</v>
+        <v>0.06287869930267334</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -531,31 +531,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="C4">
-        <v>0.909333333333333</v>
+        <v>0.9199999999999994</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="E4">
-        <v>0.9499999999999995</v>
+        <v>0.952380952380952</v>
       </c>
       <c r="F4">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="G4">
-        <v>0.9444444444444443</v>
+        <v>0.9457364341085269</v>
       </c>
       <c r="H4">
-        <v>1.506713273525238</v>
+        <v>1.219287948608399</v>
       </c>
       <c r="I4">
-        <v>21.06373223543167</v>
+        <v>22.1866117477417</v>
       </c>
       <c r="J4">
-        <v>0.04325208902359009</v>
+        <v>0.05297538779342651</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -563,31 +563,31 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="C5">
-        <v>0.8936708860759488</v>
+        <v>0.9102564102564099</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="E5">
-        <v>0.81734693877551</v>
+        <v>0.847402597402597</v>
       </c>
       <c r="F5">
         <v>0.58</v>
       </c>
       <c r="G5">
-        <v>0.9312169312169312</v>
+        <v>0.9285714285714283</v>
       </c>
       <c r="H5">
-        <v>1.609377492625004</v>
+        <v>1.243070273399353</v>
       </c>
       <c r="I5">
-        <v>31.78399509429932</v>
+        <v>32.53826698303223</v>
       </c>
       <c r="J5">
-        <v>0.04516164779663086</v>
+        <v>0.05298066426773072</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -595,31 +595,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.9020618556701027</v>
+        <v>0.8966666666666666</v>
       </c>
       <c r="D6">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="E6">
-        <v>0.9451827242524914</v>
+        <v>0.9312169312169307</v>
       </c>
       <c r="F6">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="G6">
-        <v>0.9329140461215929</v>
+        <v>0.9430894308943087</v>
       </c>
       <c r="H6">
-        <v>4.547433214187622</v>
+        <v>4.62388254404068</v>
       </c>
       <c r="I6">
-        <v>6.330683057308197</v>
+        <v>9.546919813156128</v>
       </c>
       <c r="J6">
-        <v>0.05534853853579712</v>
+        <v>0.04775843858718872</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -627,31 +627,31 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="C7">
-        <v>0.8847517730496451</v>
+        <v>0.8956228956228954</v>
       </c>
       <c r="D7">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
-        <v>0.9333976833976834</v>
+        <v>0.9309523809523813</v>
       </c>
       <c r="F7">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.948148148148148</v>
+        <v>0.9333333333333327</v>
       </c>
       <c r="H7">
-        <v>4.602386058935591</v>
+        <v>5.780841271089439</v>
       </c>
       <c r="I7">
-        <v>27.5026718378067</v>
+        <v>28.69266699075699</v>
       </c>
       <c r="J7">
-        <v>0.05577471733093262</v>
+        <v>0.05966106367111206</v>
       </c>
     </row>
   </sheetData>
